--- a/biology/Écologie/Daisyworld/Daisyworld.xlsx
+++ b/biology/Écologie/Daisyworld/Daisyworld.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Daisyworld est un modèle informatique volontairement très simplifié, simulant comment quelques boucles de rétroactions peuvent avoir pour effet une tendance à la stabilisation d'un système climatique, simplement en modifiant l'albédo qui à son tour modifie ce Vivant.
 Ce modèle a été imaginé par James Lovelock pour illustrer les théories Gaia[réf. nécessaire] et répondre aux critiques virulentes de téléologie, dont faisait l'objet son « hypothèse Gaia ».
-Lovelock voulait rendre compréhensible grâce à une métaphore très simplifiée l'importance des phénomènes de rétroactions entre le vivant et le climat ; un peu comme « une caricature qui esquisserait les traits essentiels du sujet », selon son explication. Daisyworld est une simulation informatique, une planète hypothétique, en orbite autour d'un soleil dont la température augmente progressivement au cours de la simulation (ce qui est le cas de notre soleil[1]). Lovelock a baptisé son modèle « Daisyworld » car il utilise une planète imaginaire peuplée de pâquerettes claires et d'autres sombres entrant en compétition pour conquérir l'espace, et contribuant ce faisant à réguler la température de cette planète imaginaire. Les pâquerettes de couleur noire absorbent les calories solaires. Elles sont donc plus tolérantes au froid et couvrent l'espace quand il fait froid. Puis après un certain temps, leur albédo réchauffe le milieu au point que les pâquerettes blanches deviennent plus compétitives, mais en couvrant le sol elles augmentent l'albédo et refroidissent donc la planète, ce qui va à nouveau favoriser les pâquerettes noires, etc.
+Lovelock voulait rendre compréhensible grâce à une métaphore très simplifiée l'importance des phénomènes de rétroactions entre le vivant et le climat ; un peu comme « une caricature qui esquisserait les traits essentiels du sujet », selon son explication. Daisyworld est une simulation informatique, une planète hypothétique, en orbite autour d'un soleil dont la température augmente progressivement au cours de la simulation (ce qui est le cas de notre soleil). Lovelock a baptisé son modèle « Daisyworld » car il utilise une planète imaginaire peuplée de pâquerettes claires et d'autres sombres entrant en compétition pour conquérir l'espace, et contribuant ce faisant à réguler la température de cette planète imaginaire. Les pâquerettes de couleur noire absorbent les calories solaires. Elles sont donc plus tolérantes au froid et couvrent l'espace quand il fait froid. Puis après un certain temps, leur albédo réchauffe le milieu au point que les pâquerettes blanches deviennent plus compétitives, mais en couvrant le sol elles augmentent l'albédo et refroidissent donc la planète, ce qui va à nouveau favoriser les pâquerettes noires, etc.
 La théorie de Gaïa s'adapta bien à cette étude de simulation informatique. Ceci pouvait être réalisé à propos de la Terre en réduisant le nombre de variables environnementales à une seule, la température, et au biotope d'une seule espèce, les pâquerettes ! Lovelock affirmait que ce modèle serait la preuve mathématique qui allait réfuter toutes les critiques.
 </t>
         </is>
@@ -514,7 +526,9 @@
           <t>Le modèle Daisyworld originel</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce modèle est une représentation numérique simplifiée d'une planète comme la Terre mais sans océan, dont le climat se stabilise par l'effet de la compétition quel que soit le rayonnement incident, et qui orbite comme la Terre autour d'une étoile semblable au Soleil. Cette planète tourne sur elle-même et contient relativement peu de nuages et de gaz à effet de serre dans son atmosphère, qui compliqueraient son climat. Sur cette planète la température moyenne est uniquement déterminée par son pouvoir réfléchissant (albédo) et peut être ainsi calculée par la loi de Stefan-Boltzmann.
 La biologie de Daisyworld est également très simple. Gaïa est couverte de pâquerettes qui commencent à germer dès que la température atteint 5 °C et cessent de croître au-dessus de 40 °C ; elles présentent une croissance optimale à une température de 20 °C.
@@ -559,7 +573,9 @@
           <t>La suite du modèle</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">À l'époque où Lovelock créa son modèle Daisyworld à une seule dimension, il ignorait la biologie des populations et le fait que si ce type de modèle contenait plus de deux espèces en compétition simultanée, le système était presque invariablement instable.
 Ce problème sera résolu en introduisant une dépendance spatiale dans le modèle. Les températures locales T1, T2 et les albédos A1, A2 peuvent être remplacés par des champs à deux dimensions T(x,y) et A(x,y).
@@ -593,7 +609,9 @@
           <t>Intérêts de ces modèles</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">En incorporant l'environnement physique dans ce modèle, une variable que les théoriciens en écologie n'avaient jamais utilisée jusqu'à présent, l'instabilité inhérente qui ressortait des modèles écologiques multi-espèces s'évanouit. Dès lors on pouvait ajouter des lapins ou d'autres herbivores pour couper les pâquerettes et même des renards, pour tuer les lapins, sans éprouver la stabilité du système.
 Ainsi de manière beaucoup plus indépendante que dans la première version, Lovelock trouve pour la première fois une justification théorique à la biodiversité par le biais de l'influence du nombre d'espèces sur la qualité des effets stabilisateurs obtenus sur l'ensemble de la planète. La diversité est la plus vaste lorsque la régulation de la température est la plus efficace, et la plus faible lorsque le système subit un stress : au moment où la croissance débute ou lorsque les pâquerettes souffrent de la chaleur et dépérissent. Cette découverte soutient l'idée du caractère essentiel du maintien de la biodiversité et a relancé le débat sur la biodiversité à ce sujet.
